--- a/external_files/testdata.xlsx
+++ b/external_files/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ramya\PycharmProjects\POM-M16-Dec26-2025\external_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC44EA7-F0E4-44CC-9C98-0F31F2F423D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE5DD1D2-C9B7-4713-BD95-D753D149ACC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="168" yWindow="204" windowWidth="18132" windowHeight="12000" xr2:uid="{8462F852-AE71-41E4-B0FF-F5BDCAE817B1}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>name</t>
   </si>
@@ -76,6 +76,12 @@
   </si>
   <si>
     <t>List</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>India</t>
   </si>
 </sst>
 </file>
@@ -438,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4FC76B7-1094-46F6-9370-ECFFA601321F}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="141" zoomScaleNormal="141" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -506,6 +512,14 @@
         <v>13</v>
       </c>
     </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{8783A98C-D95F-49C5-88CE-B25BDE190FDF}"/>
